--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/60.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/60.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05106673498009114</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.511491125984226</v>
+        <v>-1.543751050418784</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2342720187375286</v>
+        <v>0.2206305328813816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1195276418209165</v>
+        <v>0.1170501440319659</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.05763304021423155</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.405240504412007</v>
+        <v>-1.442473722044769</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2094738638623061</v>
+        <v>0.1964636459065933</v>
       </c>
       <c r="G3" t="n">
-        <v>0.09506677307993565</v>
+        <v>0.09133893790365151</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06915229067187642</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.385923096738043</v>
+        <v>-1.436118958513731</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2057429790826382</v>
+        <v>0.1839029394896438</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1340766896440647</v>
+        <v>0.1297340544256185</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.08386798865820941</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.463985014392996</v>
+        <v>-1.515115274645463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2363353803869673</v>
+        <v>0.2103167742375719</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0838826576304065</v>
+        <v>0.08619425699528165</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.09855769472064536</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.465498227592008</v>
+        <v>-1.513337355872742</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3461223220429713</v>
+        <v>0.3208283016575526</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0984268260881407</v>
+        <v>0.09579440844729607</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1076077664839817</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.413790982379338</v>
+        <v>-1.439511947238481</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4002649805178964</v>
+        <v>0.3763140054626768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02635249971682269</v>
+        <v>0.02421655750685099</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1042404977903271</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.147036685117484</v>
+        <v>-1.157887783877509</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4369254826351919</v>
+        <v>0.4220086526439646</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03043782441586573</v>
+        <v>-0.02875383342736434</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08207543051658167</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5714496631049281</v>
+        <v>-0.5736813628611492</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3724769944852548</v>
+        <v>0.3679080786957352</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0250790613499573</v>
+        <v>-0.02233868774932827</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.03586396905556219</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03234497036587236</v>
+        <v>0.03312383907007963</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3197188559465478</v>
+        <v>0.3229276486269194</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06239644803611048</v>
+        <v>-0.06141081622248561</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.0371393114271479</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8179862337677528</v>
+        <v>0.8069448397565827</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1281202043149431</v>
+        <v>0.1318821950491252</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005514025881233094</v>
+        <v>-0.01117225999942483</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1366582235502685</v>
       </c>
       <c r="E12" t="n">
-        <v>1.591394928076774</v>
+        <v>1.576946517165289</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2607938854514257</v>
+        <v>-0.2563359752250742</v>
       </c>
       <c r="G12" t="n">
-        <v>0.09929169360776945</v>
+        <v>0.09552970287358742</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2580324502541358</v>
       </c>
       <c r="E13" t="n">
-        <v>2.33568844896055</v>
+        <v>2.318232519192021</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6280850673857225</v>
+        <v>-0.6214777966945108</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2224779826112515</v>
+        <v>0.2164812425174645</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3922178903252795</v>
       </c>
       <c r="E14" t="n">
-        <v>3.025245248630249</v>
+        <v>3.002198785938647</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.174203771901196</v>
+        <v>-1.155119963846426</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3944567059132246</v>
+        <v>0.3858562144504002</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5297351677790861</v>
       </c>
       <c r="E15" t="n">
-        <v>3.726951668180768</v>
+        <v>3.706297314383372</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.767275999874766</v>
+        <v>-1.739338583276321</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5433761581893839</v>
+        <v>0.5247912652481939</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6664867936160306</v>
       </c>
       <c r="E16" t="n">
-        <v>4.334874244791799</v>
+        <v>4.324137201198327</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.275927887138284</v>
+        <v>-2.243617949208232</v>
       </c>
       <c r="G16" t="n">
-        <v>0.723779715799278</v>
+        <v>0.7091959024975552</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.8035138709261386</v>
       </c>
       <c r="E17" t="n">
-        <v>4.945004734252659</v>
+        <v>4.926944983014149</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.823764738200156</v>
+        <v>-2.789881204924095</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9402283655636288</v>
+        <v>0.9143469915665017</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9440239268558143</v>
       </c>
       <c r="E18" t="n">
-        <v>5.299260081562819</v>
+        <v>5.285318514733712</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.368702026364769</v>
+        <v>-3.329847639573211</v>
       </c>
       <c r="G18" t="n">
-        <v>1.132949881161127</v>
+        <v>1.105296687598047</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.089049892427287</v>
       </c>
       <c r="E19" t="n">
-        <v>5.614491484133286</v>
+        <v>5.60163557610879</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.879425204246523</v>
+        <v>-3.830277796114165</v>
       </c>
       <c r="G19" t="n">
-        <v>1.365005791122784</v>
+        <v>1.34252228521582</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.235631624506878</v>
       </c>
       <c r="E20" t="n">
-        <v>5.962972102475995</v>
+        <v>5.952397297782538</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.385659060987073</v>
+        <v>-4.337086503092549</v>
       </c>
       <c r="G20" t="n">
-        <v>1.534286225350823</v>
+        <v>1.515622652642333</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.377439456206931</v>
       </c>
       <c r="E21" t="n">
-        <v>6.170524449249299</v>
+        <v>6.170837948477148</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.695786647334511</v>
+        <v>-4.648753834188438</v>
       </c>
       <c r="G21" t="n">
-        <v>1.677250412139214</v>
+        <v>1.654462555814554</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.507480786230124</v>
       </c>
       <c r="E22" t="n">
-        <v>6.299627578737914</v>
+        <v>6.314570635318241</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.980426868442002</v>
+        <v>-4.921946759074383</v>
       </c>
       <c r="G22" t="n">
-        <v>1.877657538184415</v>
+        <v>1.850767965308623</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.618998573203319</v>
       </c>
       <c r="E23" t="n">
-        <v>6.36923782557517</v>
+        <v>6.386923085518156</v>
       </c>
       <c r="F23" t="n">
-        <v>-5.248139656047366</v>
+        <v>-5.174433181945069</v>
       </c>
       <c r="G23" t="n">
-        <v>1.980903080582296</v>
+        <v>1.95915330924946</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.706810011929518</v>
       </c>
       <c r="E24" t="n">
-        <v>6.45891202299473</v>
+        <v>6.483112455606739</v>
       </c>
       <c r="F24" t="n">
-        <v>-5.368754214517339</v>
+        <v>-5.291798692970007</v>
       </c>
       <c r="G24" t="n">
-        <v>2.075970806546339</v>
+        <v>2.046685465252281</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.766850979815759</v>
       </c>
       <c r="E25" t="n">
-        <v>6.460363634205391</v>
+        <v>6.494091027788205</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.395318394712086</v>
+        <v>-5.314146186566055</v>
       </c>
       <c r="G25" t="n">
-        <v>2.13525692608828</v>
+        <v>2.107883076195151</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.796871289825635</v>
       </c>
       <c r="E26" t="n">
-        <v>6.519289290627373</v>
+        <v>6.548725282328588</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.390315825321398</v>
+        <v>-5.316474863709879</v>
       </c>
       <c r="G26" t="n">
-        <v>2.163602989540146</v>
+        <v>2.134701288351763</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.796678146200809</v>
       </c>
       <c r="E27" t="n">
-        <v>6.40233212149552</v>
+        <v>6.440851051914867</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.377758778428509</v>
+        <v>-5.309170148724807</v>
       </c>
       <c r="G27" t="n">
-        <v>2.170841528131792</v>
+        <v>2.141694028910679</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.767159564116283</v>
       </c>
       <c r="E28" t="n">
-        <v>6.31293360822185</v>
+        <v>6.351556225156243</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.302905958414265</v>
+        <v>-5.22470741852772</v>
       </c>
       <c r="G28" t="n">
-        <v>2.130950886110439</v>
+        <v>2.105889855423538</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.710148075872908</v>
       </c>
       <c r="E29" t="n">
-        <v>6.219587688328266</v>
+        <v>6.255210715374414</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.137695219901827</v>
+        <v>-5.078128536848581</v>
       </c>
       <c r="G29" t="n">
-        <v>2.046271329112769</v>
+        <v>2.025873751920284</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.628115359781203</v>
       </c>
       <c r="E30" t="n">
-        <v>6.060414249634618</v>
+        <v>6.105716717820758</v>
       </c>
       <c r="F30" t="n">
-        <v>-4.931836317887514</v>
+        <v>-4.885093826983574</v>
       </c>
       <c r="G30" t="n">
-        <v>1.992623926227363</v>
+        <v>1.977279541841735</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.524891657484157</v>
       </c>
       <c r="E31" t="n">
-        <v>5.897580067039129</v>
+        <v>5.938969284163252</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.792041583895845</v>
+        <v>-4.755872677844008</v>
       </c>
       <c r="G31" t="n">
-        <v>1.887850532534228</v>
+        <v>1.868939332030978</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.405267399219547</v>
       </c>
       <c r="E32" t="n">
-        <v>5.717136254664569</v>
+        <v>5.749047304472028</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.539630791189075</v>
+        <v>-4.505264505697367</v>
       </c>
       <c r="G32" t="n">
-        <v>1.821231336695745</v>
+        <v>1.801612628207467</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.274705697595354</v>
       </c>
       <c r="E33" t="n">
-        <v>5.458443278987295</v>
+        <v>5.481237234518724</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.385149777221988</v>
+        <v>-4.356528334584571</v>
       </c>
       <c r="G33" t="n">
-        <v>1.726408798843754</v>
+        <v>1.706377174057318</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.13966901968598</v>
       </c>
       <c r="E34" t="n">
-        <v>5.247597360559552</v>
+        <v>5.262907589387281</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.163380484434025</v>
+        <v>-4.146522886849386</v>
       </c>
       <c r="G34" t="n">
-        <v>1.579775329264047</v>
+        <v>1.562401738786878</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.00573653293273</v>
       </c>
       <c r="E35" t="n">
-        <v>4.987623551461106</v>
+        <v>5.002045735783491</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.025519503947986</v>
+        <v>-4.009725303063256</v>
       </c>
       <c r="G35" t="n">
-        <v>1.514800479570076</v>
+        <v>1.496830386671048</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8771347578192279</v>
       </c>
       <c r="E36" t="n">
-        <v>4.692876944739901</v>
+        <v>4.713866754909508</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.862374871728031</v>
+        <v>-3.850095338743063</v>
       </c>
       <c r="G36" t="n">
-        <v>1.470916076957377</v>
+        <v>1.456206619996244</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7569227281494614</v>
       </c>
       <c r="E37" t="n">
-        <v>4.379411872449296</v>
+        <v>4.39535519893949</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.721510031909007</v>
+        <v>-3.714359321894813</v>
       </c>
       <c r="G37" t="n">
-        <v>1.376435704605042</v>
+        <v>1.363257758463224</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6468652152233247</v>
       </c>
       <c r="E38" t="n">
-        <v>4.104277875009601</v>
+        <v>4.10894254834537</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.624326186156986</v>
+        <v>-3.621874609996798</v>
       </c>
       <c r="G38" t="n">
-        <v>1.265922957343708</v>
+        <v>1.258698446927627</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5482478996310689</v>
       </c>
       <c r="E39" t="n">
-        <v>3.845530006471419</v>
+        <v>3.844698074668334</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.564374033236036</v>
+        <v>-3.570759292800911</v>
       </c>
       <c r="G39" t="n">
-        <v>1.177746725106241</v>
+        <v>1.171762793346666</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4615822133958064</v>
       </c>
       <c r="E40" t="n">
-        <v>3.508618363525266</v>
+        <v>3.504863691839205</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.48244887801456</v>
+        <v>-3.492017313591384</v>
       </c>
       <c r="G40" t="n">
-        <v>1.095969780609215</v>
+        <v>1.085330324324022</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3864212627111522</v>
       </c>
       <c r="E41" t="n">
-        <v>3.29065711048258</v>
+        <v>3.292311215357921</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.391945188474623</v>
+        <v>-3.403563872406335</v>
       </c>
       <c r="G41" t="n">
-        <v>1.033863387857991</v>
+        <v>1.026257677018942</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3217484009635881</v>
       </c>
       <c r="E42" t="n">
-        <v>2.995041976717685</v>
+        <v>2.995992233132058</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.309110946484454</v>
+        <v>-3.319909592066278</v>
       </c>
       <c r="G42" t="n">
-        <v>1.021776589806874</v>
+        <v>1.007392220566448</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.265473968357036</v>
       </c>
       <c r="E43" t="n">
-        <v>2.652795967532694</v>
+        <v>2.672190225211928</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.213813280425277</v>
+        <v>-3.226253527508569</v>
       </c>
       <c r="G43" t="n">
-        <v>0.928951542171234</v>
+        <v>0.9165555143370064</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2158780071459847</v>
       </c>
       <c r="E44" t="n">
-        <v>2.426814257590771</v>
+        <v>2.445501007284978</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.181642404409524</v>
+        <v>-3.190769867337059</v>
       </c>
       <c r="G44" t="n">
-        <v>0.915515599583151</v>
+        <v>0.9034916233617398</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1712144130925079</v>
       </c>
       <c r="E45" t="n">
-        <v>2.163527359376229</v>
+        <v>2.186925136377639</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.088618522633263</v>
+        <v>-3.100421707569692</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8450911086424365</v>
+        <v>0.8321729887089127</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1299517416748338</v>
       </c>
       <c r="E46" t="n">
-        <v>2.016043660373135</v>
+        <v>2.041054677564543</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.004888002208613</v>
+        <v>-3.011147008193402</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8048613507248114</v>
+        <v>0.79308683206019</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.09084466087198351</v>
       </c>
       <c r="E47" t="n">
-        <v>1.791684949352039</v>
+        <v>1.825206799666789</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.931763392431935</v>
+        <v>-2.932102508328207</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7326138068812968</v>
+        <v>0.7179818098461109</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0532428205468171</v>
       </c>
       <c r="E48" t="n">
-        <v>1.668933533791078</v>
+        <v>1.696439126550385</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.859419481121495</v>
+        <v>-2.870561512044328</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6638220735922369</v>
+        <v>0.6508551600045732</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.01653741782427842</v>
       </c>
       <c r="E49" t="n">
-        <v>1.481273139969236</v>
+        <v>1.513921583874882</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.824011756074239</v>
+        <v>-2.832942214623185</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5831088307554594</v>
+        <v>0.5683804662533473</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.0197169837528824</v>
       </c>
       <c r="E50" t="n">
-        <v>1.388937858637024</v>
+        <v>1.423209301463497</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.740623401149245</v>
+        <v>-2.746880577372003</v>
       </c>
       <c r="G50" t="n">
-        <v>0.577730550227895</v>
+        <v>0.5542522636971553</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.05597094239307072</v>
       </c>
       <c r="E51" t="n">
-        <v>1.301210528017644</v>
+        <v>1.330641030432768</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.669524337940047</v>
+        <v>-2.68283280710669</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4858673474994863</v>
+        <v>0.4649556071765024</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.09256770890970845</v>
       </c>
       <c r="E52" t="n">
-        <v>1.252456518721788</v>
+        <v>1.282359709661391</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.585738314733813</v>
+        <v>-2.598153860029696</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4082165163806608</v>
+        <v>0.3883709174006325</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1295082633618</v>
       </c>
       <c r="E53" t="n">
-        <v>1.22404885328157</v>
+        <v>1.235575744151432</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.54038217352812</v>
+        <v>-2.562636959181304</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4013768659116081</v>
+        <v>0.3830536289407429</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1664572088556563</v>
       </c>
       <c r="E54" t="n">
-        <v>1.145333100661142</v>
+        <v>1.15647818118736</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.480436119813938</v>
+        <v>-2.507623943900659</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3463144470561469</v>
+        <v>0.3289829411056741</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2031652068810797</v>
       </c>
       <c r="E55" t="n">
-        <v>1.13514925512148</v>
+        <v>1.130515687740225</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.459915338644749</v>
+        <v>-2.484054779189083</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3177640601775703</v>
+        <v>0.2971810670993536</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2394389552758008</v>
       </c>
       <c r="E56" t="n">
-        <v>1.117796401947321</v>
+        <v>1.116200849456948</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.424940047357308</v>
+        <v>-2.455464137545841</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2679060944568003</v>
+        <v>0.2590567553578627</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.275069019228974</v>
       </c>
       <c r="E57" t="n">
-        <v>1.019610761483742</v>
+        <v>1.002817815490838</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.390843651765062</v>
+        <v>-2.420162538696341</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2344281584307762</v>
+        <v>0.2209897761599862</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3098796355377409</v>
       </c>
       <c r="E58" t="n">
-        <v>1.031092518223524</v>
+        <v>1.007321469767945</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.419052483064659</v>
+        <v>-2.444489224888437</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2281215786332012</v>
+        <v>0.2084132118054412</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3434113826074008</v>
       </c>
       <c r="E59" t="n">
-        <v>1.015069902045353</v>
+        <v>0.9819408406464285</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.348099800817881</v>
+        <v>-2.380231031989645</v>
       </c>
       <c r="G59" t="n">
-        <v>0.2229848266936291</v>
+        <v>0.2052062488871</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3754372381863712</v>
       </c>
       <c r="E60" t="n">
-        <v>1.019915111901439</v>
+        <v>0.9769150942700245</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.366086361575181</v>
+        <v>-2.401306840974675</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2027433891943913</v>
+        <v>0.1829032795004537</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.405720130712708</v>
       </c>
       <c r="E61" t="n">
-        <v>1.135769544449733</v>
+        <v>1.074227938245177</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.393695030928859</v>
+        <v>-2.422319218209322</v>
       </c>
       <c r="G61" t="n">
-        <v>0.2226078957153988</v>
+        <v>0.1969467030825778</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4338317048868516</v>
       </c>
       <c r="E62" t="n">
-        <v>1.166255209635631</v>
+        <v>1.090624435798195</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.382072382512748</v>
+        <v>-2.411192435303407</v>
       </c>
       <c r="G62" t="n">
-        <v>0.190274170878954</v>
+        <v>0.1611187426890433</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4591703010672577</v>
       </c>
       <c r="E63" t="n">
-        <v>1.236302769598115</v>
+        <v>1.146978666647009</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.391030287492147</v>
+        <v>-2.423284112719938</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1572494059157536</v>
+        <v>0.132265225234123</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4812200015912444</v>
       </c>
       <c r="E64" t="n">
-        <v>1.334301164413933</v>
+        <v>1.227142370954036</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.457413444028728</v>
+        <v>-2.485608857073438</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1821597861954978</v>
+        <v>0.1592908104208294</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4994905330130197</v>
       </c>
       <c r="E65" t="n">
-        <v>1.385296022276161</v>
+        <v>1.259895721216084</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.592647496160015</v>
+        <v>-2.620780087375019</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1489416763777683</v>
+        <v>0.1221210245384493</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5136051449778075</v>
       </c>
       <c r="E66" t="n">
-        <v>1.43476973797058</v>
+        <v>1.299624734258099</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.676533546357236</v>
+        <v>-2.698338210550979</v>
       </c>
       <c r="G66" t="n">
-        <v>0.154934147026818</v>
+        <v>0.124786987816515</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5233393017447385</v>
       </c>
       <c r="E67" t="n">
-        <v>1.488190250364235</v>
+        <v>1.342270387976323</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.727083162125438</v>
+        <v>-2.744934930413177</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1139407684219043</v>
+        <v>0.08536598471625778</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5283685125834976</v>
       </c>
       <c r="E68" t="n">
-        <v>1.533546391569928</v>
+        <v>1.373088459931049</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.826060479627436</v>
+        <v>-2.836297388265975</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0743855827727625</v>
+        <v>0.04564917008777775</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5285956417700275</v>
       </c>
       <c r="E69" t="n">
-        <v>1.533625681257905</v>
+        <v>1.360406989220103</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.878433758219115</v>
+        <v>-2.878098911767581</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1083416966093571</v>
+        <v>0.07567190548002416</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5239066345777382</v>
       </c>
       <c r="E70" t="n">
-        <v>1.553376132612361</v>
+        <v>1.370193776399202</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.91658917591512</v>
+        <v>-2.924034477616184</v>
       </c>
       <c r="G70" t="n">
-        <v>0.1093669732669706</v>
+        <v>0.0731596422124989</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5142680886252475</v>
       </c>
       <c r="E71" t="n">
-        <v>1.547843542153579</v>
+        <v>1.360797948373899</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.990450874829648</v>
+        <v>-2.989002008262033</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1063454262343607</v>
+        <v>0.06900669232452138</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4998345735241219</v>
       </c>
       <c r="E72" t="n">
-        <v>1.536989393790171</v>
+        <v>1.354629820569946</v>
       </c>
       <c r="F72" t="n">
-        <v>-3.064509578122766</v>
+        <v>-3.063394338165332</v>
       </c>
       <c r="G72" t="n">
-        <v>0.06222010495434573</v>
+        <v>0.02217942244651248</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4806595923170695</v>
       </c>
       <c r="E73" t="n">
-        <v>1.577086798920941</v>
+        <v>1.394697949508233</v>
       </c>
       <c r="F73" t="n">
-        <v>-3.129567986949451</v>
+        <v>-3.121670734026917</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0003656094426181846</v>
+        <v>-0.03736042409695619</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4569605228147821</v>
       </c>
       <c r="E74" t="n">
-        <v>1.553274275859344</v>
+        <v>1.380025697708381</v>
       </c>
       <c r="F74" t="n">
-        <v>-3.177520255515722</v>
+        <v>-3.166664277390283</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.02193309049929081</v>
+        <v>-0.06294354688315348</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4288500795763938</v>
       </c>
       <c r="E75" t="n">
-        <v>1.527764953475033</v>
+        <v>1.365210114549494</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.19098150981189</v>
+        <v>-3.172501828187439</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.007082741861829099</v>
+        <v>-0.0506115607199845</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3964266143536469</v>
       </c>
       <c r="E76" t="n">
-        <v>1.533357926080813</v>
+        <v>1.379259637338386</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.257915729679913</v>
+        <v>-3.233257856560343</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.01776855211845508</v>
+        <v>-0.06467511168444122</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3597351204825968</v>
       </c>
       <c r="E77" t="n">
-        <v>1.407237308701496</v>
+        <v>1.276169624713075</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.281731912265572</v>
+        <v>-3.251456364752813</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02596405625191873</v>
+        <v>-0.08028786116783801</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3186909206853022</v>
       </c>
       <c r="E78" t="n">
-        <v>1.443796563986451</v>
+        <v>1.316038919510742</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.276764413313797</v>
+        <v>-3.237509308637616</v>
       </c>
       <c r="G78" t="n">
-        <v>0.005271811366379562</v>
+        <v>-0.05059936230644953</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2736139634329257</v>
       </c>
       <c r="E79" t="n">
-        <v>1.463076156578457</v>
+        <v>1.332246951574645</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.23314410635413</v>
+        <v>-3.19501583012824</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04439395333503025</v>
+        <v>-0.01562834046374614</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2252244471990381</v>
       </c>
       <c r="E80" t="n">
-        <v>1.494642601203553</v>
+        <v>1.374515064393963</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.184598384969383</v>
+        <v>-3.155668932390208</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03553241582255771</v>
+        <v>-0.02571276893309853</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1744097208516055</v>
       </c>
       <c r="E81" t="n">
-        <v>1.622125171454048</v>
+        <v>1.512138175816071</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.070273938438712</v>
+        <v>-3.043259331824187</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01035854981045837</v>
+        <v>-0.04735092478208938</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1221057257073186</v>
       </c>
       <c r="E82" t="n">
-        <v>1.69632568130451</v>
+        <v>1.587123043656831</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.951568126726621</v>
+        <v>-2.927823304860143</v>
       </c>
       <c r="G82" t="n">
-        <v>0.03127455957817952</v>
+        <v>-0.02225878814067428</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.0687939382419694</v>
       </c>
       <c r="E83" t="n">
-        <v>1.873081913267451</v>
+        <v>1.760780268661215</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.814406115336134</v>
+        <v>-2.791437112570479</v>
       </c>
       <c r="G83" t="n">
-        <v>0.07880872752053941</v>
+        <v>0.01933536233083628</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.01529631747043561</v>
       </c>
       <c r="E84" t="n">
-        <v>2.070368685130408</v>
+        <v>1.963011667450568</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.733546491536937</v>
+        <v>-2.705809738841142</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03943468831239178</v>
+        <v>-0.01492571184413238</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03791671492043563</v>
       </c>
       <c r="E85" t="n">
-        <v>2.215140066884004</v>
+        <v>2.11949657580111</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.517779733089191</v>
+        <v>-2.497140627308713</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08659070543516788</v>
+        <v>0.03077015517850887</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.08993791435675728</v>
       </c>
       <c r="E86" t="n">
-        <v>2.37030754657277</v>
+        <v>2.277176318757402</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.331258061170837</v>
+        <v>-2.311481383227281</v>
       </c>
       <c r="G86" t="n">
-        <v>0.08776602257926139</v>
+        <v>0.03221200765834129</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.139368381175518</v>
       </c>
       <c r="E87" t="n">
-        <v>2.48153756054996</v>
+        <v>2.391824328207088</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.065723605262479</v>
+        <v>-2.048347575102604</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1034891677051496</v>
+        <v>0.04709529201234739</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1840551766983502</v>
       </c>
       <c r="E88" t="n">
-        <v>2.575388494763891</v>
+        <v>2.492508813683304</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.760289968443294</v>
+        <v>-1.74827209142865</v>
       </c>
       <c r="G88" t="n">
-        <v>0.1149581161107201</v>
+        <v>0.06106735487529191</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2218086900488563</v>
       </c>
       <c r="E89" t="n">
-        <v>2.608091221609768</v>
+        <v>2.527684158952718</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.555160226598033</v>
+        <v>-1.551253684663462</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06057026952374223</v>
+        <v>0.01538124658347862</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2497233480984384</v>
       </c>
       <c r="E90" t="n">
-        <v>2.665627478730119</v>
+        <v>2.591635561751105</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.327909271727798</v>
+        <v>-1.329218161500099</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05961635358530827</v>
+        <v>0.009214948541555757</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2656032677140212</v>
       </c>
       <c r="E91" t="n">
-        <v>2.671690090256995</v>
+        <v>2.596318532707177</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.9646234388777054</v>
+        <v>-0.9712209508380891</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06176449420881493</v>
+        <v>0.02154022557728051</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2673668114776048</v>
       </c>
       <c r="E92" t="n">
-        <v>2.604543922953801</v>
+        <v>2.524987089720138</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.7551577709414431</v>
+        <v>-0.7697159675747426</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05156479073155716</v>
+        <v>0.00839460523132962</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2549081385918461</v>
       </c>
       <c r="E93" t="n">
-        <v>2.529996978158946</v>
+        <v>2.455595194485158</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4311313122122699</v>
+        <v>-0.4652027010567699</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.03337886191914487</v>
+        <v>-0.06401029814678584</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.229243433187507</v>
       </c>
       <c r="E94" t="n">
-        <v>2.479143011973047</v>
+        <v>2.402694334508092</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1623185326663913</v>
+        <v>-0.2073117710694188</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.08102830486941015</v>
+        <v>-0.1017485300998952</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1934749949263017</v>
       </c>
       <c r="E95" t="n">
-        <v>2.328205942098205</v>
+        <v>2.26295052889293</v>
       </c>
       <c r="F95" t="n">
-        <v>0.05098658593</v>
+        <v>0.005990297923588775</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1312015995800589</v>
+        <v>-0.1444380981068452</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1514166626043035</v>
       </c>
       <c r="E96" t="n">
-        <v>2.168598239882713</v>
+        <v>2.108974224285853</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2222882972807828</v>
+        <v>0.1723516517927123</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1864799303550889</v>
+        <v>-0.1966729247049024</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1082919394069501</v>
       </c>
       <c r="E97" t="n">
-        <v>1.993297278654493</v>
+        <v>1.943625338740131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3510498711904188</v>
+        <v>0.3043378763203153</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2068811670716347</v>
+        <v>-0.2099771244268078</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.06827452205395626</v>
       </c>
       <c r="E98" t="n">
-        <v>1.779038854040344</v>
+        <v>1.74266135511706</v>
       </c>
       <c r="F98" t="n">
-        <v>0.448499337397163</v>
+        <v>0.4013378309882962</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3440175617936982</v>
+        <v>-0.3348571631496192</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.0342170707922293</v>
       </c>
       <c r="E99" t="n">
-        <v>1.613153848219761</v>
+        <v>1.587629887739208</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5013666517370079</v>
+        <v>0.4562435002298331</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3292465028442138</v>
+        <v>-0.3226672885041325</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.005503030687989913</v>
       </c>
       <c r="E100" t="n">
-        <v>1.43180064411617</v>
+        <v>1.415404756483829</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5228328099551558</v>
+        <v>0.4851269037979141</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.4288392303090507</v>
+        <v>-0.4092272309482169</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01828778824961527</v>
       </c>
       <c r="E101" t="n">
-        <v>1.291198070188148</v>
+        <v>1.294332452545956</v>
       </c>
       <c r="F101" t="n">
-        <v>0.522481495645349</v>
+        <v>0.4988330412457965</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.4307787780611095</v>
+        <v>-0.4109490370186766</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04154821093224501</v>
       </c>
       <c r="E102" t="n">
-        <v>1.077212890037182</v>
+        <v>1.09735491046611</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4775821850265407</v>
+        <v>0.4599475484997241</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4669501237956531</v>
+        <v>-0.4482206796540737</v>
       </c>
     </row>
   </sheetData>
